--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="404">
   <si>
     <t>Path</t>
   </si>
@@ -1047,34 +1047,7 @@
     <t>MessageHeader.response.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>MessageHeader.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>MessageHeader.response.identifier</t>
@@ -1147,6 +1120,93 @@
     <t>AcknowledgementDetail or Observation[classCode="ALRT" and moodCode="EVN"]</t>
   </si>
   <si>
+    <t>MessageHeader.response.details.id</t>
+  </si>
+  <si>
+    <t>MessageHeader.response.details.extension</t>
+  </si>
+  <si>
+    <t>MessageHeader.response.details.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>MessageHeader.response.details.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>MessageHeader.response.details.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>MessageHeader.response.details.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>MessageHeader.focus</t>
   </si>
   <si>
@@ -1167,6 +1227,24 @@
   </si>
   <si>
     <t>unique(./controlAct[classCode="CACT" and classCode="EVN" and isNormalAct()]/participation[typeCode="SUBJ" and isNormalParticipation]/role or ./controlAct[classCode="CACT" and classCode="EVN" and isNormalAct()]/outboundRelationship[typeCode="SBJ" and isNormalActRelatoinship]/target)</t>
+  </si>
+  <si>
+    <t>MessageHeader.focus.id</t>
+  </si>
+  <si>
+    <t>MessageHeader.focus.extension</t>
+  </si>
+  <si>
+    <t>MessageHeader.focus.reference</t>
+  </si>
+  <si>
+    <t>MessageHeader.focus.type</t>
+  </si>
+  <si>
+    <t>MessageHeader.focus.identifier</t>
+  </si>
+  <si>
+    <t>MessageHeader.focus.display</t>
   </si>
   <si>
     <t>MessageHeader.definition</t>
@@ -1334,7 +1412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL61"/>
+  <dimension ref="A1:AL73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7112,7 +7190,7 @@
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>39</v>
@@ -7211,14 +7289,14 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>334</v>
+        <v>39</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>39</v>
@@ -7233,14 +7311,12 @@
         <v>67</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>335</v>
+        <v>68</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>39</v>
@@ -7307,7 +7383,7 @@
         <v>39</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>39</v>
@@ -7315,18 +7391,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>339</v>
+        <v>39</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>39</v>
@@ -7341,17 +7417,13 @@
         <v>67</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>340</v>
+        <v>68</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>39</v>
       </c>
@@ -7417,7 +7489,7 @@
         <v>39</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>39</v>
@@ -7425,7 +7497,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7451,14 +7523,14 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7507,7 +7579,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>48</v>
@@ -7522,10 +7594,10 @@
         <v>60</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7533,7 +7605,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7559,16 +7631,16 @@
         <v>122</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7596,10 +7668,10 @@
         <v>143</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
@@ -7617,7 +7689,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>48</v>
@@ -7632,10 +7704,10 @@
         <v>60</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -7643,7 +7715,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7666,19 +7738,19 @@
         <v>49</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7727,7 +7799,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7742,10 +7814,10 @@
         <v>60</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7753,7 +7825,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7764,7 +7836,7 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>39</v>
@@ -7773,23 +7845,19 @@
         <v>39</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>367</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>368</v>
+        <v>62</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>39</v>
       </c>
@@ -7837,25 +7905,25 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>366</v>
+        <v>64</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>372</v>
+        <v>65</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -7863,7 +7931,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7883,21 +7951,19 @@
         <v>39</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>374</v>
+        <v>67</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>375</v>
+        <v>68</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>376</v>
+        <v>69</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>39</v>
       </c>
@@ -7933,44 +7999,1338 @@
         <v>39</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" t="s" s="2">
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG64" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AH61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI61" t="s" s="2">
+      <c r="AH64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI64" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AJ64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL61">
+  <autoFilter ref="A1:AL73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7980,7 +9340,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="405">
   <si>
     <t>Path</t>
   </si>
@@ -182,6 +182,10 @@
   </si>
   <si>
     <t>Resource.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid-uuid:Must be a valid uuid {$this.empty() or $this.matches('[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}')}
+</t>
   </si>
   <si>
     <t>MessageHeader.meta</t>
@@ -1779,7 +1783,7 @@
         <v>39</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>39</v>
@@ -1793,7 +1797,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1816,13 +1820,13 @@
         <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1873,7 +1877,7 @@
         <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>40</v>
@@ -1885,7 +1889,7 @@
         <v>39</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>39</v>
@@ -1899,7 +1903,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1925,10 +1929,10 @@
         <v>50</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1979,7 +1983,7 @@
         <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
@@ -1997,7 +2001,7 @@
         <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>39</v>
@@ -2005,7 +2009,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2028,13 +2032,13 @@
         <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2073,19 +2077,19 @@
         <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
@@ -2097,7 +2101,7 @@
         <v>39</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>39</v>
@@ -2111,7 +2115,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2134,16 +2138,16 @@
         <v>49</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2193,7 +2197,7 @@
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
@@ -2205,7 +2209,7 @@
         <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>39</v>
@@ -2219,7 +2223,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2242,16 +2246,16 @@
         <v>49</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2301,7 +2305,7 @@
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
@@ -2313,7 +2317,7 @@
         <v>39</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>39</v>
@@ -2327,7 +2331,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2350,16 +2354,16 @@
         <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2409,7 +2413,7 @@
         <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
@@ -2421,7 +2425,7 @@
         <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>39</v>
@@ -2435,7 +2439,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2458,16 +2462,16 @@
         <v>49</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2517,7 +2521,7 @@
         <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
@@ -2529,7 +2533,7 @@
         <v>39</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>39</v>
@@ -2543,7 +2547,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2566,16 +2570,16 @@
         <v>49</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2601,13 +2605,13 @@
         <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>39</v>
@@ -2625,7 +2629,7 @@
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
@@ -2637,7 +2641,7 @@
         <v>39</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>39</v>
@@ -2651,7 +2655,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2674,16 +2678,16 @@
         <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2709,13 +2713,13 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>39</v>
@@ -2733,7 +2737,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2745,7 +2749,7 @@
         <v>39</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>39</v>
@@ -2759,7 +2763,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2782,16 +2786,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2841,7 +2845,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -2853,7 +2857,7 @@
         <v>39</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>39</v>
@@ -2867,7 +2871,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2890,16 +2894,16 @@
         <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2925,13 +2929,13 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
@@ -2949,7 +2953,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2961,7 +2965,7 @@
         <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>39</v>
@@ -2975,11 +2979,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2998,16 +3002,16 @@
         <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3057,7 +3061,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -3069,13 +3073,13 @@
         <v>39</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>39</v>
@@ -3083,7 +3087,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3109,10 +3113,10 @@
         <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3163,7 +3167,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -3181,7 +3185,7 @@
         <v>39</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>39</v>
@@ -3189,7 +3193,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3212,13 +3216,13 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3257,19 +3261,19 @@
         <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -3281,7 +3285,7 @@
         <v>39</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>39</v>
@@ -3295,7 +3299,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3318,13 +3322,13 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3351,13 +3355,13 @@
         <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>39</v>
@@ -3375,7 +3379,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>48</v>
@@ -3387,13 +3391,13 @@
         <v>39</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -3401,7 +3405,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3424,16 +3428,16 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3483,7 +3487,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>48</v>
@@ -3495,13 +3499,13 @@
         <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>39</v>
@@ -3509,11 +3513,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3532,16 +3536,16 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3591,7 +3595,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3609,7 +3613,7 @@
         <v>39</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>39</v>
@@ -3617,7 +3621,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3640,13 +3644,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3697,7 +3701,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3709,7 +3713,7 @@
         <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>39</v>
@@ -3723,7 +3727,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3746,13 +3750,13 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3803,7 +3807,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3815,7 +3819,7 @@
         <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>39</v>
@@ -3829,7 +3833,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3852,19 +3856,19 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3889,13 +3893,13 @@
         <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>39</v>
@@ -3913,7 +3917,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>48</v>
@@ -3925,21 +3929,21 @@
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3965,10 +3969,10 @@
         <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4019,7 +4023,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -4037,7 +4041,7 @@
         <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>39</v>
@@ -4045,7 +4049,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4068,13 +4072,13 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4113,19 +4117,19 @@
         <v>39</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -4137,7 +4141,7 @@
         <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>39</v>
@@ -4151,7 +4155,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4174,19 +4178,19 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -4235,7 +4239,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -4247,13 +4251,13 @@
         <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>39</v>
@@ -4261,7 +4265,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4287,13 +4291,13 @@
         <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4343,7 +4347,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4355,13 +4359,13 @@
         <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>39</v>
@@ -4369,7 +4373,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4392,17 +4396,17 @@
         <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4451,7 +4455,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4463,13 +4467,13 @@
         <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4477,7 +4481,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4503,14 +4507,14 @@
         <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>39</v>
@@ -4559,7 +4563,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4571,13 +4575,13 @@
         <v>39</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4585,7 +4589,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4608,19 +4612,19 @@
         <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4669,7 +4673,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4681,13 +4685,13 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4695,7 +4699,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4718,19 +4722,19 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -4779,7 +4783,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4791,21 +4795,21 @@
         <v>39</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4831,10 +4835,10 @@
         <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4885,7 +4889,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4903,7 +4907,7 @@
         <v>39</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>39</v>
@@ -4911,7 +4915,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4934,13 +4938,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4991,7 +4995,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -5003,7 +5007,7 @@
         <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>39</v>
@@ -5017,7 +5021,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5040,13 +5044,13 @@
         <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5097,7 +5101,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5109,7 +5113,7 @@
         <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>39</v>
@@ -5123,7 +5127,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5149,14 +5153,14 @@
         <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5205,7 +5209,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5217,13 +5221,13 @@
         <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -5231,7 +5235,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5254,17 +5258,17 @@
         <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5313,7 +5317,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5325,13 +5329,13 @@
         <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5339,7 +5343,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5362,19 +5366,19 @@
         <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5423,7 +5427,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>48</v>
@@ -5435,13 +5439,13 @@
         <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5449,7 +5453,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5472,17 +5476,17 @@
         <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5531,7 +5535,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5543,21 +5547,21 @@
         <v>39</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5580,19 +5584,19 @@
         <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5641,7 +5645,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5653,21 +5657,21 @@
         <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5690,19 +5694,19 @@
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5751,7 +5755,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5763,21 +5767,21 @@
         <v>39</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5800,19 +5804,19 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -5861,7 +5865,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5873,21 +5877,21 @@
         <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5910,17 +5914,17 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>39</v>
@@ -5969,7 +5973,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>48</v>
@@ -5981,21 +5985,21 @@
         <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6021,10 +6025,10 @@
         <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6075,7 +6079,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6093,7 +6097,7 @@
         <v>39</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -6101,7 +6105,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6124,13 +6128,13 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6181,7 +6185,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6193,7 +6197,7 @@
         <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>39</v>
@@ -6207,7 +6211,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6230,13 +6234,13 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6287,7 +6291,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6299,7 +6303,7 @@
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>39</v>
@@ -6313,7 +6317,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6339,14 +6343,14 @@
         <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -6395,7 +6399,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6407,13 +6411,13 @@
         <v>39</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6421,7 +6425,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6447,14 +6451,14 @@
         <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6503,7 +6507,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6515,13 +6519,13 @@
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6529,7 +6533,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6555,14 +6559,14 @@
         <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6611,7 +6615,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6623,13 +6627,13 @@
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>39</v>
@@ -6637,7 +6641,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6660,17 +6664,17 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>39</v>
@@ -6719,7 +6723,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6731,13 +6735,13 @@
         <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -6745,7 +6749,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6768,19 +6772,19 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -6829,7 +6833,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>48</v>
@@ -6841,13 +6845,13 @@
         <v>39</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>39</v>
@@ -6855,7 +6859,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6878,19 +6882,19 @@
         <v>49</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -6939,7 +6943,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6951,21 +6955,21 @@
         <v>39</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6988,17 +6992,17 @@
         <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>39</v>
@@ -7023,13 +7027,13 @@
         <v>39</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>39</v>
@@ -7047,7 +7051,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7059,21 +7063,21 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7096,13 +7100,13 @@
         <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7153,7 +7157,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7165,13 +7169,13 @@
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7179,7 +7183,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7205,10 +7209,10 @@
         <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7259,7 +7263,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7277,7 +7281,7 @@
         <v>39</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>39</v>
@@ -7285,7 +7289,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7308,13 +7312,13 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7365,7 +7369,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7377,7 +7381,7 @@
         <v>39</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>39</v>
@@ -7391,7 +7395,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7414,13 +7418,13 @@
         <v>49</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7471,7 +7475,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7483,7 +7487,7 @@
         <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>39</v>
@@ -7497,7 +7501,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7520,17 +7524,17 @@
         <v>49</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7579,7 +7583,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>48</v>
@@ -7591,13 +7595,13 @@
         <v>39</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7605,7 +7609,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7628,19 +7632,19 @@
         <v>49</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7665,13 +7669,13 @@
         <v>39</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
@@ -7689,7 +7693,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>48</v>
@@ -7701,13 +7705,13 @@
         <v>39</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -7715,7 +7719,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7738,19 +7742,19 @@
         <v>49</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7799,7 +7803,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7811,13 +7815,13 @@
         <v>39</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7825,7 +7829,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7851,10 +7855,10 @@
         <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7905,7 +7909,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7923,7 +7927,7 @@
         <v>39</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -7931,7 +7935,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7954,13 +7958,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7999,19 +8003,19 @@
         <v>39</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -8023,7 +8027,7 @@
         <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>39</v>
@@ -8037,7 +8041,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8063,13 +8067,13 @@
         <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8119,7 +8123,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8128,16 +8132,16 @@
         <v>48</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -8145,7 +8149,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8168,16 +8172,16 @@
         <v>49</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8203,13 +8207,13 @@
         <v>39</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -8227,7 +8231,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8239,13 +8243,13 @@
         <v>39</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>39</v>
@@ -8253,7 +8257,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8276,16 +8280,16 @@
         <v>49</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8335,7 +8339,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8347,13 +8351,13 @@
         <v>39</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -8361,7 +8365,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8387,13 +8391,13 @@
         <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8443,7 +8447,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8455,13 +8459,13 @@
         <v>39</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>39</v>
@@ -8469,7 +8473,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8492,19 +8496,19 @@
         <v>49</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8553,7 +8557,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8565,13 +8569,13 @@
         <v>39</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>39</v>
@@ -8579,7 +8583,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8605,10 +8609,10 @@
         <v>50</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8659,7 +8663,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8677,7 +8681,7 @@
         <v>39</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -8685,7 +8689,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8708,13 +8712,13 @@
         <v>39</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8753,19 +8757,19 @@
         <v>39</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8777,7 +8781,7 @@
         <v>39</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>39</v>
@@ -8791,7 +8795,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8817,13 +8821,13 @@
         <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8873,7 +8877,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8882,16 +8886,16 @@
         <v>48</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>39</v>
@@ -8899,7 +8903,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8922,16 +8926,16 @@
         <v>49</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -8957,13 +8961,13 @@
         <v>39</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>39</v>
@@ -8981,7 +8985,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -8993,13 +8997,13 @@
         <v>39</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9007,7 +9011,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9030,16 +9034,16 @@
         <v>49</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9089,7 +9093,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9101,13 +9105,13 @@
         <v>39</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>39</v>
@@ -9115,7 +9119,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9141,13 +9145,13 @@
         <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9197,7 +9201,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9209,13 +9213,13 @@
         <v>39</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9223,7 +9227,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9246,17 +9250,17 @@
         <v>49</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>39</v>
@@ -9305,7 +9309,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9317,13 +9321,13 @@
         <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -184,7 +184,7 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t xml:space="preserve">valid-uuid:Must be a valid uuid {$this.empty() or $this.matches('[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}')}
+    <t xml:space="preserve">valid-uuid:Must be a valid uuid {$this.matches('[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}')}
 </t>
   </si>
   <si>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="406">
   <si>
     <t>Path</t>
   </si>
@@ -184,7 +184,7 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t xml:space="preserve">valid-uuid:Must be a valid uuid {$this.matches('[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}')}
+    <t xml:space="preserve">valid-uuid:Must be a valid uuid {$this.matches('^[0-9a-f]{8}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{4}-[0-9a-f]{12}$')}
 </t>
   </si>
   <si>
@@ -781,6 +781,10 @@
   </si>
   <si>
     <t>Identifies where to route the message.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+valid-her-id:Must be a valid HER-ID prefixed with OID namespace: urn:oid:2.16.578.1.12.4.1.2.{id} {$this.matches('^urn:oid:2\.16\.578\.1\.12\.4\.1\.2\.[1-9][0-9]{0,7}$')}</t>
   </si>
   <si>
     <t>MSH-25 (or MSH-6)</t>
@@ -5439,13 +5443,13 @@
         <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5453,7 +5457,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5476,17 +5480,17 @@
         <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5535,7 +5539,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5550,10 +5554,10 @@
         <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>224</v>
@@ -5561,7 +5565,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5584,19 +5588,19 @@
         <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5645,7 +5649,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5660,10 +5664,10 @@
         <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>224</v>
@@ -5671,7 +5675,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5694,19 +5698,19 @@
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5755,7 +5759,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5770,18 +5774,18 @@
         <v>61</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5804,19 +5808,19 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -5865,7 +5869,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5880,18 +5884,18 @@
         <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5917,14 +5921,14 @@
         <v>218</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>39</v>
@@ -5973,7 +5977,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>48</v>
@@ -5991,15 +5995,15 @@
         <v>39</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6105,7 +6109,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6211,7 +6215,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6317,7 +6321,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6346,11 +6350,11 @@
         <v>230</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -6399,7 +6403,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6414,10 +6418,10 @@
         <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6425,7 +6429,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6451,14 +6455,14 @@
         <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6507,7 +6511,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6522,10 +6526,10 @@
         <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6533,7 +6537,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6559,14 +6563,14 @@
         <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6615,7 +6619,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6630,10 +6634,10 @@
         <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>39</v>
@@ -6641,7 +6645,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6664,17 +6668,17 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>39</v>
@@ -6723,7 +6727,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6738,10 +6742,10 @@
         <v>61</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -6749,7 +6753,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6775,16 +6779,16 @@
         <v>242</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>245</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -6833,7 +6837,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>48</v>
@@ -6848,10 +6852,10 @@
         <v>61</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>39</v>
@@ -6859,7 +6863,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6882,19 +6886,19 @@
         <v>49</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -6943,7 +6947,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6958,18 +6962,18 @@
         <v>61</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6992,17 +6996,17 @@
         <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>39</v>
@@ -7030,10 +7034,10 @@
         <v>113</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>39</v>
@@ -7051,7 +7055,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7066,18 +7070,18 @@
         <v>61</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7103,10 +7107,10 @@
         <v>218</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7157,7 +7161,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7172,10 +7176,10 @@
         <v>61</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7183,7 +7187,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7289,7 +7293,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7395,7 +7399,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7501,7 +7505,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7527,14 +7531,14 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7583,7 +7587,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>48</v>
@@ -7598,10 +7602,10 @@
         <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7609,7 +7613,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7635,16 +7639,16 @@
         <v>123</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7672,10 +7676,10 @@
         <v>144</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
@@ -7693,7 +7697,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>48</v>
@@ -7708,10 +7712,10 @@
         <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -7719,7 +7723,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7742,19 +7746,19 @@
         <v>49</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7803,7 +7807,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7818,10 +7822,10 @@
         <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7829,7 +7833,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7935,7 +7939,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8041,7 +8045,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8067,13 +8071,13 @@
         <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8123,7 +8127,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8132,7 +8136,7 @@
         <v>48</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>61</v>
@@ -8149,7 +8153,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8175,13 +8179,13 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8210,10 +8214,10 @@
         <v>105</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -8231,7 +8235,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8257,7 +8261,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8280,16 +8284,16 @@
         <v>49</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8339,7 +8343,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8357,7 +8361,7 @@
         <v>39</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -8365,7 +8369,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8391,13 +8395,13 @@
         <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8447,7 +8451,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8473,7 +8477,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8496,19 +8500,19 @@
         <v>49</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8557,7 +8561,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8575,7 +8579,7 @@
         <v>39</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>39</v>
@@ -8583,7 +8587,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8689,7 +8693,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8795,7 +8799,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8821,13 +8825,13 @@
         <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8877,7 +8881,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8886,7 +8890,7 @@
         <v>48</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>61</v>
@@ -8903,7 +8907,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8929,13 +8933,13 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -8964,10 +8968,10 @@
         <v>105</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>39</v>
@@ -8985,7 +8989,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9011,7 +9015,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9034,16 +9038,16 @@
         <v>49</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9093,7 +9097,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9111,7 +9115,7 @@
         <v>39</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>39</v>
@@ -9119,7 +9123,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9145,13 +9149,13 @@
         <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9201,7 +9205,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9227,7 +9231,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9250,17 +9254,17 @@
         <v>49</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>39</v>
@@ -9309,7 +9313,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9327,7 +9331,7 @@
         <v>39</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="407">
   <si>
     <t>Path</t>
   </si>
@@ -783,8 +783,11 @@
     <t>Identifies where to route the message.</t>
   </si>
   <si>
+    <t>urn:oid:2.16.578.1.12.4.1.2.131725</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-valid-her-id:Must be a valid HER-ID prefixed with OID namespace: urn:oid:2.16.578.1.12.4.1.2.{id} {$this.matches('^urn:oid:2\.16\.578\.1\.12\.4\.1\.2\.[1-9][0-9]{0,7}$')}</t>
+valid-her-id:Must be a valid HER-ID prefixed with OID namespace {$this.matches('^urn:oid:2\.16\.578\.1\.12\.4\.1\.2\.[1-9][0-9]{0,7}$')}</t>
   </si>
   <si>
     <t>MSH-25 (or MSH-6)</t>
@@ -5395,7 +5398,7 @@
         <v>39</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>39</v>
@@ -5443,13 +5446,13 @@
         <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5457,7 +5460,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5480,17 +5483,17 @@
         <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5539,7 +5542,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5554,10 +5557,10 @@
         <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>224</v>
@@ -5565,7 +5568,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5588,19 +5591,19 @@
         <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5649,7 +5652,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5664,10 +5667,10 @@
         <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>224</v>
@@ -5675,7 +5678,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5698,19 +5701,19 @@
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5759,7 +5762,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5774,18 +5777,18 @@
         <v>61</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5808,19 +5811,19 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -5869,7 +5872,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5884,18 +5887,18 @@
         <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5921,14 +5924,14 @@
         <v>218</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>39</v>
@@ -5977,7 +5980,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>48</v>
@@ -5995,15 +5998,15 @@
         <v>39</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6109,7 +6112,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6215,7 +6218,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6321,7 +6324,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6350,11 +6353,11 @@
         <v>230</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -6403,7 +6406,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6418,10 +6421,10 @@
         <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6429,7 +6432,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6455,14 +6458,14 @@
         <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6511,7 +6514,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6526,10 +6529,10 @@
         <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6537,7 +6540,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6563,14 +6566,14 @@
         <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6619,7 +6622,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6634,10 +6637,10 @@
         <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>39</v>
@@ -6645,7 +6648,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6668,17 +6671,17 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>39</v>
@@ -6727,7 +6730,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6742,10 +6745,10 @@
         <v>61</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -6753,7 +6756,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6779,16 +6782,16 @@
         <v>242</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>245</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -6837,7 +6840,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>48</v>
@@ -6852,10 +6855,10 @@
         <v>61</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>39</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6886,19 +6889,19 @@
         <v>49</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -6947,7 +6950,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6962,18 +6965,18 @@
         <v>61</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6996,17 +6999,17 @@
         <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>39</v>
@@ -7034,10 +7037,10 @@
         <v>113</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>39</v>
@@ -7055,7 +7058,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7070,18 +7073,18 @@
         <v>61</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7107,10 +7110,10 @@
         <v>218</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7161,7 +7164,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7176,10 +7179,10 @@
         <v>61</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7187,7 +7190,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7293,7 +7296,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7399,7 +7402,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7505,7 +7508,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7531,14 +7534,14 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7587,7 +7590,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>48</v>
@@ -7602,10 +7605,10 @@
         <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7613,7 +7616,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7639,16 +7642,16 @@
         <v>123</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7676,10 +7679,10 @@
         <v>144</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
@@ -7697,7 +7700,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>48</v>
@@ -7712,10 +7715,10 @@
         <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -7723,7 +7726,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7746,19 +7749,19 @@
         <v>49</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7807,7 +7810,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7822,10 +7825,10 @@
         <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7833,7 +7836,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7939,7 +7942,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8045,7 +8048,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8071,13 +8074,13 @@
         <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8127,7 +8130,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8136,7 +8139,7 @@
         <v>48</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>61</v>
@@ -8153,7 +8156,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8179,13 +8182,13 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8214,10 +8217,10 @@
         <v>105</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -8235,7 +8238,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8261,7 +8264,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8284,16 +8287,16 @@
         <v>49</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8343,7 +8346,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8361,7 +8364,7 @@
         <v>39</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -8369,7 +8372,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8395,13 +8398,13 @@
         <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8451,7 +8454,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8477,7 +8480,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8500,19 +8503,19 @@
         <v>49</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8561,7 +8564,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8579,7 +8582,7 @@
         <v>39</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>39</v>
@@ -8587,7 +8590,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8693,7 +8696,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8799,7 +8802,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8825,13 +8828,13 @@
         <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8881,7 +8884,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8890,7 +8893,7 @@
         <v>48</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>61</v>
@@ -8907,7 +8910,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8933,13 +8936,13 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -8968,10 +8971,10 @@
         <v>105</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>39</v>
@@ -8989,7 +8992,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9015,7 +9018,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9038,16 +9041,16 @@
         <v>49</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9097,7 +9100,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9115,7 +9118,7 @@
         <v>39</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>39</v>
@@ -9123,7 +9126,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9149,13 +9152,13 @@
         <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9205,7 +9208,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9231,7 +9234,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9254,17 +9257,17 @@
         <v>49</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>39</v>
@@ -9313,7 +9316,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9331,7 +9334,7 @@
         <v>39</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="411">
   <si>
     <t>Path</t>
   </si>
@@ -226,14 +226,21 @@
     <t>MessageHeader.meta.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -528,6 +535,12 @@
   </si>
   <si>
     <t>MessageHeader.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -1704,7 +1717,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>48</v>
@@ -2020,14 +2033,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -2039,15 +2052,17 @@
         <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M6" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
         <v>39</v>
@@ -2084,19 +2099,19 @@
         <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
@@ -2108,13 +2123,13 @@
         <v>39</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>39</v>
@@ -2122,7 +2137,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2145,16 +2160,16 @@
         <v>49</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2204,7 +2219,7 @@
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
@@ -2230,7 +2245,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2253,16 +2268,16 @@
         <v>49</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2312,7 +2327,7 @@
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
@@ -2338,7 +2353,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2349,7 +2364,7 @@
         <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>39</v>
@@ -2361,16 +2376,16 @@
         <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2420,7 +2435,7 @@
         <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
@@ -2446,7 +2461,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2469,16 +2484,16 @@
         <v>49</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2528,7 +2543,7 @@
         <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
@@ -2554,7 +2569,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2577,16 +2592,16 @@
         <v>49</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2612,13 +2627,13 @@
         <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>39</v>
@@ -2636,7 +2651,7 @@
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
@@ -2662,7 +2677,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2685,16 +2700,16 @@
         <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2720,13 +2735,13 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>39</v>
@@ -2744,7 +2759,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2770,7 +2785,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2793,16 +2808,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2852,7 +2867,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -2878,7 +2893,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2901,16 +2916,16 @@
         <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2936,13 +2951,13 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
@@ -2960,7 +2975,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2986,11 +3001,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3009,16 +3024,16 @@
         <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3068,7 +3083,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -3086,7 +3101,7 @@
         <v>39</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>39</v>
@@ -3094,7 +3109,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3200,18 +3215,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>39</v>
@@ -3223,15 +3238,17 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -3268,19 +3285,19 @@
         <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -3292,13 +3309,13 @@
         <v>39</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -3306,7 +3323,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3329,13 +3346,13 @@
         <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3362,13 +3379,13 @@
         <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>39</v>
@@ -3386,7 +3403,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>48</v>
@@ -3404,7 +3421,7 @@
         <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -3412,7 +3429,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3435,16 +3452,16 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3494,7 +3511,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>48</v>
@@ -3506,13 +3523,13 @@
         <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>39</v>
@@ -3520,11 +3537,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3543,16 +3560,16 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3602,7 +3619,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3620,7 +3637,7 @@
         <v>39</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>39</v>
@@ -3628,7 +3645,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3651,13 +3668,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3708,7 +3725,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3720,7 +3737,7 @@
         <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>39</v>
@@ -3734,7 +3751,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3757,13 +3774,13 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3814,7 +3831,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3826,7 +3843,7 @@
         <v>39</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>39</v>
@@ -3840,7 +3857,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3863,19 +3880,19 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3900,13 +3917,13 @@
         <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>39</v>
@@ -3924,7 +3941,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>48</v>
@@ -3939,18 +3956,18 @@
         <v>61</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4056,7 +4073,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4079,13 +4096,13 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4124,19 +4141,19 @@
         <v>39</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -4148,7 +4165,7 @@
         <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>39</v>
@@ -4162,7 +4179,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4185,19 +4202,19 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -4246,7 +4263,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -4261,10 +4278,10 @@
         <v>61</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>39</v>
@@ -4272,7 +4289,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4298,13 +4315,13 @@
         <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4354,7 +4371,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4369,10 +4386,10 @@
         <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>39</v>
@@ -4380,7 +4397,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4403,17 +4420,17 @@
         <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4462,7 +4479,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4477,10 +4494,10 @@
         <v>61</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4488,7 +4505,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4514,14 +4531,14 @@
         <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>39</v>
@@ -4570,7 +4587,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4585,10 +4602,10 @@
         <v>61</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4596,7 +4613,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4619,19 +4636,19 @@
         <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4680,7 +4697,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4695,10 +4712,10 @@
         <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4706,7 +4723,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4729,19 +4746,19 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -4790,7 +4807,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4808,15 +4825,15 @@
         <v>39</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4922,7 +4939,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4945,13 +4962,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5002,7 +5019,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -5014,7 +5031,7 @@
         <v>39</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>39</v>
@@ -5028,7 +5045,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5051,13 +5068,13 @@
         <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5108,7 +5125,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5120,7 +5137,7 @@
         <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>39</v>
@@ -5134,7 +5151,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5160,14 +5177,14 @@
         <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5216,7 +5233,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5231,10 +5248,10 @@
         <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -5242,7 +5259,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5265,17 +5282,17 @@
         <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5324,7 +5341,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5342,7 +5359,7 @@
         <v>39</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5350,7 +5367,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5373,19 +5390,19 @@
         <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5398,7 +5415,7 @@
         <v>39</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>39</v>
@@ -5434,7 +5451,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>48</v>
@@ -5446,13 +5463,13 @@
         <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5460,7 +5477,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5483,17 +5500,17 @@
         <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5542,7 +5559,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5557,18 +5574,18 @@
         <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5591,19 +5608,19 @@
         <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5652,7 +5669,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5667,18 +5684,18 @@
         <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5701,19 +5718,19 @@
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5762,7 +5779,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5777,18 +5794,18 @@
         <v>61</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5811,19 +5828,19 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -5872,7 +5889,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5887,18 +5904,18 @@
         <v>61</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5921,17 +5938,17 @@
         <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>39</v>
@@ -5980,7 +5997,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>48</v>
@@ -5998,15 +6015,15 @@
         <v>39</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6112,7 +6129,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6135,13 +6152,13 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6192,7 +6209,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6204,7 +6221,7 @@
         <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>39</v>
@@ -6218,7 +6235,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6241,13 +6258,13 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6298,7 +6315,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6310,7 +6327,7 @@
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>39</v>
@@ -6324,7 +6341,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6350,14 +6367,14 @@
         <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -6406,7 +6423,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6421,10 +6438,10 @@
         <v>61</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6432,7 +6449,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6458,14 +6475,14 @@
         <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6514,7 +6531,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6529,10 +6546,10 @@
         <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6540,7 +6557,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6566,14 +6583,14 @@
         <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6622,7 +6639,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6637,10 +6654,10 @@
         <v>61</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>39</v>
@@ -6648,7 +6665,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6671,17 +6688,17 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>39</v>
@@ -6730,7 +6747,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6745,10 +6762,10 @@
         <v>61</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -6756,7 +6773,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6779,19 +6796,19 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
@@ -6840,7 +6857,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>48</v>
@@ -6855,10 +6872,10 @@
         <v>61</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>39</v>
@@ -6866,7 +6883,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6889,19 +6906,19 @@
         <v>49</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -6950,7 +6967,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6965,18 +6982,18 @@
         <v>61</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6999,17 +7016,17 @@
         <v>49</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>39</v>
@@ -7034,13 +7051,13 @@
         <v>39</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>39</v>
@@ -7058,7 +7075,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7073,18 +7090,18 @@
         <v>61</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7107,13 +7124,13 @@
         <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7164,7 +7181,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7179,10 +7196,10 @@
         <v>61</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7190,7 +7207,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7296,7 +7313,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7319,13 +7336,13 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7376,7 +7393,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7388,7 +7405,7 @@
         <v>39</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>39</v>
@@ -7402,7 +7419,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7425,13 +7442,13 @@
         <v>49</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7482,7 +7499,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7494,7 +7511,7 @@
         <v>39</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>39</v>
@@ -7508,7 +7525,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7531,17 +7548,17 @@
         <v>49</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7590,7 +7607,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>48</v>
@@ -7605,10 +7622,10 @@
         <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7616,7 +7633,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7639,19 +7656,19 @@
         <v>49</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7676,13 +7693,13 @@
         <v>39</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
@@ -7700,7 +7717,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>48</v>
@@ -7715,10 +7732,10 @@
         <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -7726,7 +7743,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7749,19 +7766,19 @@
         <v>49</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7810,7 +7827,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7825,10 +7842,10 @@
         <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7836,7 +7853,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7942,7 +7959,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7965,13 +7982,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8010,19 +8027,19 @@
         <v>39</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -8034,7 +8051,7 @@
         <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>39</v>
@@ -8048,7 +8065,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8074,13 +8091,13 @@
         <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8130,7 +8147,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8139,7 +8156,7 @@
         <v>48</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>61</v>
@@ -8148,7 +8165,7 @@
         <v>39</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -8156,7 +8173,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8179,16 +8196,16 @@
         <v>49</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8214,13 +8231,13 @@
         <v>39</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -8238,7 +8255,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8256,7 +8273,7 @@
         <v>39</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>39</v>
@@ -8264,7 +8281,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8287,16 +8304,16 @@
         <v>49</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8346,7 +8363,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8364,7 +8381,7 @@
         <v>39</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -8372,7 +8389,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8398,13 +8415,13 @@
         <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8454,7 +8471,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8472,7 +8489,7 @@
         <v>39</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>39</v>
@@ -8480,7 +8497,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8503,19 +8520,19 @@
         <v>49</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8564,7 +8581,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8582,7 +8599,7 @@
         <v>39</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>39</v>
@@ -8590,7 +8607,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8696,7 +8713,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8719,13 +8736,13 @@
         <v>39</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8764,19 +8781,19 @@
         <v>39</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8788,7 +8805,7 @@
         <v>39</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>39</v>
@@ -8802,7 +8819,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8828,13 +8845,13 @@
         <v>50</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8884,7 +8901,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8893,7 +8910,7 @@
         <v>48</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>61</v>
@@ -8902,7 +8919,7 @@
         <v>39</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>39</v>
@@ -8910,7 +8927,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8933,16 +8950,16 @@
         <v>49</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -8968,13 +8985,13 @@
         <v>39</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>39</v>
@@ -8992,7 +9009,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9010,7 +9027,7 @@
         <v>39</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9018,7 +9035,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9041,16 +9058,16 @@
         <v>49</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9100,7 +9117,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9118,7 +9135,7 @@
         <v>39</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>39</v>
@@ -9126,7 +9143,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9152,13 +9169,13 @@
         <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9208,7 +9225,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9226,7 +9243,7 @@
         <v>39</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9234,7 +9251,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9257,17 +9274,17 @@
         <v>49</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>39</v>
@@ -9316,7 +9333,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9334,7 +9351,7 @@
         <v>39</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T15:36:17+00:00</t>
+    <t>2021-09-07T16:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T16:04:57+00:00</t>
+    <t>2021-09-07T16:50:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T16:50:43+00:00</t>
+    <t>2021-09-07T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T16:56:55+00:00</t>
+    <t>2021-09-07T17:01:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T17:01:37+00:00</t>
+    <t>2021-09-07T21:20:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T21:20:43+00:00</t>
+    <t>2021-09-07T21:58:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T21:58:07+00:00</t>
+    <t>2021-09-07T22:04:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:04:48+00:00</t>
+    <t>2021-09-09T21:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-09T21:37:01+00:00</t>
+    <t>2021-09-09T21:55:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-09T21:55:44+00:00</t>
+    <t>2021-09-12T20:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T20:42:44+00:00</t>
+    <t>2021-09-13T13:38:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T10:14:05+00:00</t>
+    <t>2021-09-17T11:58:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -894,7 +894,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-valid-her-id:Must be a valid HER-ID prefixed with OID namespace {$this.matches('^urn:oid:2\.16\.578\.1\.12\.4\.1\.2\.[1-9][0-9]{0,7}$')}</t>
+valid-her-id:Must be a valid HER-ID prefixed with OID namespace {$this.matches('^urn:oid:2\\.16\\.578\\.1\\.12\\.4\\.1\\.2\\.[1-9][0-9]{0,7}$')}</t>
   </si>
   <si>
     <t>MSH-25 (or MSH-6)</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T11:58:41+00:00</t>
+    <t>2021-10-05T17:38:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T17:38:14+00:00</t>
+    <t>2021-10-06T16:27:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T16:27:54+00:00</t>
+    <t>2021-10-07T15:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T15:17:20+00:00</t>
+    <t>2021-10-07T15:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T15:21:28+00:00</t>
+    <t>2021-10-08T12:25:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T12:25:30+00:00</t>
+    <t>2021-10-08T12:52:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T12:52:53+00:00</t>
+    <t>2021-10-08T13:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T13:22:25+00:00</t>
+    <t>2021-10-09T11:33:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-09T11:33:56+00:00</t>
+    <t>2021-10-11T14:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
+++ b/igs/MessagingCore/StructureDefinition-HopsMessageHeader.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-11T14:55:32+00:00</t>
+    <t>2021-10-11T22:21:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
